--- a/Docs/Planning.xlsx
+++ b/Docs/Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbost\Documents\ProjetUnityMSLike\Metal-Slug-Like\Gestion de projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GAMAGORA\Metal-Slug-Like\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>G.D.</t>
   </si>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,9 +664,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
@@ -685,25 +682,10 @@
       <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>1</v>
+      <c r="A2" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
@@ -723,20 +705,10 @@
       <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>4</v>
+      <c r="A3" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>17</v>
@@ -754,19 +726,10 @@
         <v>36</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="6" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>2</v>
+      <c r="A4" s="21" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>18</v>
@@ -784,17 +747,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>3</v>
+      <c r="A5" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>21</v>
@@ -808,15 +764,11 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
         <v>23</v>
@@ -827,13 +779,6 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -889,12 +834,22 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -903,11 +858,19 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -916,11 +879,18 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -929,8 +899,13 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -942,7 +917,12 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="A15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -955,7 +935,12 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+      <c r="A16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
